--- a/SalesAndInentoryWeb_Application/SalesAndInentoryWeb_Application/exportfile/Import Parties Template (1).xlsx
+++ b/SalesAndInentoryWeb_Application/SalesAndInentoryWeb_Application/exportfile/Import Parties Template (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PartyName</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>PaidStatus</t>
-  </si>
-  <si>
-    <t>pruthviraj Chava</t>
-  </si>
-  <si>
-    <t>58598535vdjkgfd</t>
-  </si>
-  <si>
-    <t>EREWR</t>
   </si>
 </sst>
 </file>
@@ -386,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -443,26 +434,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>87465</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>5935894859</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
